--- a/data/column_test_example_data_miljokalk-ey3.xlsx
+++ b/data/column_test_example_data_miljokalk-ey3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JES\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277D0513-963C-40FF-BE9D-F71B61856CDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABB9EC9-3AE8-4ACD-A0B6-7D6FDD553717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{9C4AF9C2-F8EB-49E2-B469-DF75940E84A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9C4AF9C2-F8EB-49E2-B469-DF75940E84A8}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="4" r:id="rId1"/>
@@ -224,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -299,9 +299,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873E249-7022-4791-ADDE-780D97916D21}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -735,7 +732,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +793,7 @@
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="23" t="s">
         <v>26</v>
       </c>
     </row>
@@ -807,7 +804,7 @@
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="23">
         <v>38.5</v>
       </c>
     </row>
@@ -818,12 +815,10 @@
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="23">
-        <v>0</v>
-      </c>
+      <c r="C7" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <autoFilter ref="A1:C4" xr:uid="{9F3E6969-2EA2-4991-A613-ABFE39273DCD}"/>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be between 0 and 100." sqref="C6:C7" xr:uid="{B4F7F020-E335-45C6-BFE2-0403AF201DC8}">
@@ -841,7 +836,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,7 +1241,7 @@
       <c r="E26" s="29"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <autoFilter ref="A1:E26" xr:uid="{2AF23D70-A132-42CB-B3DB-5C5C08EE7040}"/>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Concentration must be positive (or zero)." sqref="D2:E26" xr:uid="{0AE957A3-F0E8-418F-84EC-884D47BC6753}">
@@ -1262,9 +1257,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD7F456-66B7-4C22-B8A7-56A44217E680}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,7 +1743,7 @@
       <c r="F26" s="29"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <autoFilter ref="A1:F26" xr:uid="{F9945553-4EF7-4B43-BEB8-0FA1F4D50DBF}"/>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Concentration must be positive (or zero)." sqref="E2:F26" xr:uid="{6A644E39-EEC9-458A-8A2D-64080D5D2709}">
